--- a/Excel Data General Data Wrangling/Excel Data General Data Wrangling.xlsx
+++ b/Excel Data General Data Wrangling/Excel Data General Data Wrangling.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\Data\GIT\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\Data\GIT\Excel Data General Data Wrangling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Card Balance" sheetId="4" r:id="rId1"/>
-    <sheet name="Card Credit Bank A " sheetId="3" r:id="rId2"/>
-    <sheet name="Card Credit Bank B" sheetId="2" r:id="rId3"/>
+    <sheet name="Credit Card Bank A" sheetId="3" r:id="rId2"/>
+    <sheet name="Credit Card Bank B" sheetId="2" r:id="rId3"/>
     <sheet name="Mortgage Credit" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="4">
   <si>
     <t>F</t>
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Genre</t>
   </si>
 </sst>
 </file>
@@ -350,25 +356,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>601169</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>296603</v>
+        <v>601169</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -376,15 +382,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>588435</v>
+        <v>296603</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>127744</v>
+        <v>588435</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -392,23 +398,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>903941</v>
+        <v>127744</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>464345</v>
+        <v>903941</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>406334</v>
+        <v>464345</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -416,7 +422,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9861434</v>
+        <v>406334</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -424,7 +430,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9286707</v>
+        <v>9861434</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -432,15 +438,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>650567</v>
+        <v>9286707</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>152944</v>
+        <v>650567</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -448,31 +454,31 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>752207</v>
+        <v>152944</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>806680</v>
+        <v>752207</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>475452</v>
+        <v>806680</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>313176</v>
+        <v>475452</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -480,7 +486,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>595790</v>
+        <v>313176</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -488,31 +494,31 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>482818</v>
+        <v>595790</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>334676</v>
+        <v>482818</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>653707</v>
+        <v>334676</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>945511</v>
+        <v>653707</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -520,15 +526,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>440153</v>
+        <v>945511</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>364370</v>
+        <v>440153</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -536,15 +542,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>909426</v>
+        <v>364370</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>450829</v>
+        <v>909426</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -552,15 +558,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>140654</v>
+        <v>450829</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>747312</v>
+        <v>140654</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -568,15 +574,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>705097</v>
+        <v>747312</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>573625</v>
+        <v>705097</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -584,31 +590,31 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>440153</v>
+        <v>573625</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>250781</v>
+        <v>440153</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>588435</v>
+        <v>250781</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>146731</v>
+        <v>588435</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -616,15 +622,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>274754</v>
+        <v>146731</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>231428</v>
+        <v>274754</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -632,15 +638,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>339137</v>
+        <v>231428</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>669209</v>
+        <v>339137</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -648,15 +654,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>631291</v>
+        <v>669209</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>279200</v>
+        <v>631291</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -664,15 +670,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>992332</v>
+        <v>279200</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>175281</v>
+        <v>992332</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -680,15 +686,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>967426</v>
+        <v>175281</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>326985</v>
+        <v>967426</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -696,7 +702,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5004574</v>
+        <v>326985</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -704,7 +710,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>872833</v>
+        <v>5004574</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -712,7 +718,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>634557</v>
+        <v>872833</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -720,7 +726,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>871287</v>
+        <v>634557</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -728,7 +734,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>436384</v>
+        <v>871287</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -736,7 +742,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>692185</v>
+        <v>436384</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -744,15 +750,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3186462</v>
+        <v>692185</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>313176</v>
+        <v>3186462</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -760,15 +766,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>430302</v>
+        <v>313176</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>522564</v>
+        <v>430302</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -784,23 +790,23 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54389</v>
+        <v>522564</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>669209</v>
+        <v>54389</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>777210</v>
+        <v>669209</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -808,7 +814,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>279200</v>
+        <v>777210</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -816,7 +822,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>463982</v>
+        <v>279200</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -824,47 +830,47 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>911728</v>
+        <v>463982</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>329704</v>
+        <v>911728</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>926729</v>
+        <v>329704</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>825919</v>
+        <v>926729</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>874643</v>
+        <v>825919</v>
       </c>
       <c r="B63" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>175281</v>
+        <v>874643</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -872,15 +878,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>116140</v>
+        <v>175281</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>459017</v>
+        <v>116140</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -888,15 +894,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>975290</v>
+        <v>459017</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>300661</v>
+        <v>975290</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -904,7 +910,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>373397</v>
+        <v>300661</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -912,7 +918,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>168419</v>
+        <v>373397</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -920,7 +926,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>163170</v>
+        <v>168419</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -928,7 +934,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>426759</v>
+        <v>163170</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -936,31 +942,31 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>738144</v>
+        <v>426759</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>30392</v>
+        <v>738144</v>
       </c>
       <c r="B74" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>628886</v>
+        <v>30392</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>10292</v>
+        <v>628886</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -968,23 +974,23 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>298035</v>
+        <v>10292</v>
       </c>
       <c r="B77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>459017</v>
+        <v>298035</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>194813</v>
+        <v>459017</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -992,7 +998,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>909426</v>
+        <v>194813</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -1000,7 +1006,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>995494</v>
+        <v>909426</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -1008,7 +1014,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>776650</v>
+        <v>995494</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -1016,7 +1022,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>173339</v>
+        <v>776650</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -1024,33 +1030,41 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>764383</v>
+        <v>173339</v>
       </c>
       <c r="B84" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>995494</v>
+        <v>764383</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>298141</v>
+        <v>995494</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>298141</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>548164</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1061,22 +1075,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B73" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>874643</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>146731</v>
+        <v>874643</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1086,416 +1100,421 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>806680</v>
+        <v>146731</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>279200</v>
+        <v>806680</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>373397</v>
+        <v>279200</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>463982</v>
+        <v>373397</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>436384</v>
+        <v>463982</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>175281</v>
+        <v>436384</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>705097</v>
+        <v>175281</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>752207</v>
+        <v>705097</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>127744</v>
+        <v>752207</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>738144</v>
+        <v>127744</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>426759</v>
+        <v>738144</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>992332</v>
+        <v>426759</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8053831</v>
+        <v>992332</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>548164</v>
+        <v>8053831</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>764383</v>
+        <v>548164</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>692185</v>
+        <v>764383</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>903941</v>
+        <v>692185</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>926729</v>
+        <v>903941</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>595790</v>
+        <v>926729</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>296603</v>
+        <v>595790</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>628886</v>
+        <v>296603</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2351538</v>
+        <v>628886</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>140654</v>
+        <v>2351538</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>631291</v>
+        <v>140654</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>152944</v>
+        <v>631291</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>967426</v>
+        <v>152944</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>825919</v>
+        <v>967426</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5797179</v>
+        <v>825919</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>995494</v>
+        <v>5797179</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>339137</v>
+        <v>995494</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>406334</v>
+        <v>339137</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>8602950</v>
+        <v>406334</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>250781</v>
+        <v>8602950</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>475452</v>
+        <v>250781</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>194813</v>
+        <v>475452</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>430302</v>
+        <v>194813</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>871287</v>
+        <v>430302</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>522564</v>
+        <v>871287</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>747312</v>
+        <v>522564</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>653707</v>
+        <v>747312</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>326985</v>
+        <v>653707</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>777210</v>
+        <v>326985</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>339137</v>
+        <v>777210</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>274754</v>
+        <v>339137</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>313176</v>
+        <v>274754</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>168419</v>
+        <v>313176</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5271172</v>
+        <v>168419</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>116140</v>
+        <v>5271172</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>650567</v>
+        <v>116140</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>300661</v>
+        <v>650567</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>945511</v>
+        <v>300661</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>152944</v>
+        <v>945511</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>298141</v>
+        <v>152944</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>364370</v>
+        <v>298141</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>440153</v>
+        <v>364370</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>450829</v>
+        <v>440153</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>634557</v>
+        <v>450829</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>669209</v>
+        <v>634557</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>573625</v>
+        <v>669209</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>601169</v>
+        <v>573625</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>329704</v>
+        <v>601169</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>573625</v>
+        <v>329704</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>909426</v>
+        <v>573625</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>231428</v>
+        <v>909426</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>334676</v>
+        <v>231428</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>163170</v>
+        <v>334676</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>450829</v>
+        <v>163170</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>464345</v>
+        <v>450829</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>911728</v>
+        <v>464345</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>482818</v>
+        <v>911728</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>326985</v>
+        <v>482818</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>173339</v>
+        <v>326985</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>975290</v>
+        <v>173339</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>459017</v>
+        <v>975290</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2131268</v>
+        <v>459017</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>872833</v>
+        <v>2131268</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>373397</v>
+        <v>872833</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>871287</v>
+        <v>373397</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>588435</v>
+        <v>871287</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>296603</v>
+        <v>588435</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>298035</v>
+        <v>296603</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>776650</v>
+        <v>298035</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>776650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>426759</v>
       </c>
     </row>
@@ -1509,461 +1528,466 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>296603</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>406334</v>
+        <v>296603</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>653707</v>
+        <v>406334</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>436384</v>
+        <v>653707</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>250781</v>
+        <v>436384</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>595790</v>
+        <v>250781</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>475452</v>
+        <v>595790</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>464345</v>
+        <v>475452</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>705097</v>
+        <v>464345</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>334676</v>
+        <v>705097</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>945511</v>
+        <v>334676</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>152944</v>
+        <v>945511</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>436384</v>
+        <v>152944</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>595790</v>
+        <v>436384</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>459017</v>
+        <v>595790</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>140654</v>
+        <v>459017</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>334676</v>
+        <v>140654</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>548164</v>
+        <v>334676</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>995494</v>
+        <v>548164</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>231428</v>
+        <v>995494</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>173339</v>
+        <v>231428</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>872833</v>
+        <v>173339</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2621537</v>
+        <v>872833</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>274754</v>
+        <v>2621537</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>482818</v>
+        <v>274754</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>992332</v>
+        <v>482818</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>806680</v>
+        <v>992332</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>96711</v>
+        <v>806680</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>650567</v>
+        <v>96711</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>522564</v>
+        <v>650567</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>747312</v>
+        <v>522564</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>55925</v>
+        <v>747312</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>463982</v>
+        <v>55925</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>313176</v>
+        <v>463982</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>440153</v>
+        <v>313176</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>692185</v>
+        <v>440153</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>339137</v>
+        <v>692185</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7801831</v>
+        <v>339137</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>747312</v>
+        <v>7801831</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>548164</v>
+        <v>747312</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>127744</v>
+        <v>548164</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>926729</v>
+        <v>127744</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>764383</v>
+        <v>926729</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>194813</v>
+        <v>764383</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>903941</v>
+        <v>194813</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>588435</v>
+        <v>903941</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>601169</v>
+        <v>588435</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>326985</v>
+        <v>601169</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>669209</v>
+        <v>326985</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>752207</v>
+        <v>669209</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>967426</v>
+        <v>752207</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>631291</v>
+        <v>967426</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>903941</v>
+        <v>631291</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>116140</v>
+        <v>903941</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>909426</v>
+        <v>116140</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>364370</v>
+        <v>909426</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>634557</v>
+        <v>364370</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>628886</v>
+        <v>634557</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>777210</v>
+        <v>628886</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>373397</v>
+        <v>777210</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>329704</v>
+        <v>373397</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3384528</v>
+        <v>329704</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>874643</v>
+        <v>3384528</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>450829</v>
+        <v>874643</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>140654</v>
+        <v>450829</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>84649</v>
+        <v>140654</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>279200</v>
+        <v>84649</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>776650</v>
+        <v>279200</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>738144</v>
+        <v>776650</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3482817</v>
+        <v>738144</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>168419</v>
+        <v>3482817</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>163170</v>
+        <v>168419</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>945511</v>
+        <v>163170</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>298141</v>
+        <v>945511</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>825919</v>
+        <v>298141</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>871287</v>
+        <v>825919</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>705097</v>
+        <v>871287</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>426759</v>
+        <v>705097</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>175281</v>
+        <v>426759</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>911728</v>
+        <v>175281</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>82753</v>
+        <v>911728</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>430302</v>
+        <v>82753</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>752207</v>
+        <v>430302</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>650567</v>
+        <v>752207</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>975290</v>
+        <v>650567</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>573625</v>
+        <v>975290</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>464345</v>
+        <v>573625</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>146731</v>
+        <v>464345</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>300661</v>
+        <v>146731</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>300661</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>298035</v>
       </c>
     </row>
@@ -1977,33 +2001,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>339137</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>296603</v>
+        <v>339137</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>995494</v>
+        <v>296603</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2011,7 +2035,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>459017</v>
+        <v>995494</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2019,7 +2043,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>300661</v>
+        <v>459017</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2027,7 +2051,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>91343</v>
+        <v>300661</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2035,7 +2059,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>634557</v>
+        <v>91343</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2043,31 +2067,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>747312</v>
+        <v>634557</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>967426</v>
+        <v>747312</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8103497</v>
+        <v>967426</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4942521</v>
+        <v>8103497</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -2075,31 +2099,31 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>194813</v>
+        <v>4942521</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>752207</v>
+        <v>194813</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>522564</v>
+        <v>752207</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>628886</v>
+        <v>522564</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2107,15 +2131,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>426759</v>
+        <v>628886</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>926729</v>
+        <v>426759</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2123,23 +2147,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>436384</v>
+        <v>926729</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>872833</v>
+        <v>436384</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>168419</v>
+        <v>872833</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -2147,7 +2171,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>911728</v>
+        <v>168419</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -2155,23 +2179,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>631291</v>
+        <v>911728</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>595790</v>
+        <v>631291</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>669209</v>
+        <v>595790</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -2179,31 +2203,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>152944</v>
+        <v>669209</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5680299</v>
+        <v>152944</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>650567</v>
+        <v>5680299</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>776650</v>
+        <v>650567</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2211,39 +2235,39 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>146731</v>
+        <v>776650</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>871287</v>
+        <v>146731</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>373397</v>
+        <v>871287</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>14042</v>
+        <v>373397</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>909426</v>
+        <v>14042</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2251,7 +2275,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>738144</v>
+        <v>909426</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2259,7 +2283,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>806680</v>
+        <v>738144</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2267,47 +2291,47 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>11626</v>
+        <v>806680</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>329704</v>
+        <v>11626</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>764383</v>
+        <v>329704</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>825919</v>
+        <v>764383</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>116140</v>
+        <v>825919</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>334676</v>
+        <v>116140</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -2315,7 +2339,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>464345</v>
+        <v>334676</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -2323,15 +2347,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>653707</v>
+        <v>464345</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>430302</v>
+        <v>653707</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2339,7 +2363,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3773168</v>
+        <v>430302</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -2347,7 +2371,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>653707</v>
+        <v>3773168</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -2355,7 +2379,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>173339</v>
+        <v>653707</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -2363,7 +2387,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>450829</v>
+        <v>173339</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2371,31 +2395,31 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>874643</v>
+        <v>450829</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>482818</v>
+        <v>874643</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>175281</v>
+        <v>482818</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>992332</v>
+        <v>175281</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -2403,7 +2427,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>475452</v>
+        <v>992332</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -2411,23 +2435,23 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>326985</v>
+        <v>475452</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>975290</v>
+        <v>326985</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>274754</v>
+        <v>975290</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -2435,23 +2459,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>692185</v>
+        <v>274754</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>77268</v>
+        <v>692185</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>298035</v>
+        <v>77268</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -2459,23 +2483,23 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>911728</v>
+        <v>298035</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>127744</v>
+        <v>911728</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>601169</v>
+        <v>127744</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -2483,7 +2507,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>548164</v>
+        <v>601169</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -2491,31 +2515,31 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>777210</v>
+        <v>548164</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>588435</v>
+        <v>777210</v>
       </c>
       <c r="B65" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>279200</v>
+        <v>588435</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>231428</v>
+        <v>279200</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -2523,23 +2547,23 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>440153</v>
+        <v>231428</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>250781</v>
+        <v>440153</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>463982</v>
+        <v>250781</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -2547,15 +2571,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>313176</v>
+        <v>463982</v>
       </c>
       <c r="B71" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>406334</v>
+        <v>313176</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -2563,15 +2587,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>825919</v>
+        <v>406334</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>903941</v>
+        <v>825919</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -2579,7 +2603,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>573625</v>
+        <v>903941</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -2587,15 +2611,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>163170</v>
+        <v>573625</v>
       </c>
       <c r="B76" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>140654</v>
+        <v>163170</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -2603,15 +2627,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>601169</v>
+        <v>140654</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>274754</v>
+        <v>601169</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -2619,7 +2643,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>231428</v>
+        <v>274754</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -2627,7 +2651,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>364370</v>
+        <v>231428</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -2635,23 +2659,23 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>298141</v>
+        <v>364370</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>926729</v>
+        <v>298141</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>705097</v>
+        <v>926729</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -2659,9 +2683,17 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
+        <v>705097</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>945511</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>1</v>
       </c>
     </row>
